--- a/models/US_no_core_rt/data/US_info.xlsx
+++ b/models/US_no_core_rt/data/US_info.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fpellegrino/Desktop/inflation_mixed_freq/models/US_no_core_rt/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594BEE1B-39A9-1740-90C7-BD9CF7EE2E58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F602EF-14E9-8545-98A5-A6C2F8A739A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12300" yWindow="460" windowWidth="16500" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12480" yWindow="8200" windowWidth="16320" windowHeight="7820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="3" r:id="rId1"/>
+    <sheet name="legend" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_DLX1.INC">#REF!</definedName>
     <definedName name="_DLX2.INC">#REF!</definedName>
     <definedName name="_DLX4.INC">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Prof Forecasters: Median: 1-Year-Ahead CPI Inflation Expectation (%)</t>
   </si>
@@ -104,13 +105,31 @@
   </si>
   <si>
     <t>TRANSF_ANNEX</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Meaning</t>
+  </si>
+  <si>
+    <t>YoY %</t>
+  </si>
+  <si>
+    <t>De-annualised and rebased</t>
+  </si>
+  <si>
+    <t>Apply percentage change to the variable specified in TRANSF_ANNEX</t>
+  </si>
+  <si>
+    <t>Output cycle transformation (2 + compute cycle subtracting trend from output)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +149,22 @@
       <color rgb="FF000000"/>
       <name val="ITC Bookman"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -139,12 +174,21 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -154,7 +198,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -172,6 +216,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -517,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMK9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -531,19 +584,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -670,4 +723,68 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88FDC31C-0E1C-1D4D-9192-FF775FADE936}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="62.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/models/US_no_core_rt/data/US_info.xlsx
+++ b/models/US_no_core_rt/data/US_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fpellegrino/Desktop/inflation_mixed_freq/models/US_no_core_rt/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F602EF-14E9-8545-98A5-A6C2F8A739A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0FB512-575F-7047-A748-4F0225EB346B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12480" yWindow="8200" windowWidth="16320" windowHeight="7820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="3" r:id="rId1"/>
@@ -116,13 +116,13 @@
     <t>YoY %</t>
   </si>
   <si>
-    <t>De-annualised and rebased</t>
-  </si>
-  <si>
-    <t>Apply percentage change to the variable specified in TRANSF_ANNEX</t>
-  </si>
-  <si>
-    <t>Output cycle transformation (2 + compute cycle subtracting trend from output)</t>
+    <t>Cycle transformation (compute cycle subtracting trend from variable specified in TRANSF_ANNEX)</t>
+  </si>
+  <si>
+    <t>Rebase and de-annualise (rebasing constant for the first observation specified in TRANSF_ANNEX)</t>
+  </si>
+  <si>
+    <t>Compute SPF expectation in levels, starting from the growth rates (wrt the variable specified in TRANSF_ANNEX)</t>
   </si>
 </sst>
 </file>
@@ -571,7 +571,7 @@
   <dimension ref="A1:AMK9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -683,6 +683,9 @@
       <c r="D7" s="1">
         <v>2</v>
       </c>
+      <c r="E7" s="1">
+        <v>7824.2470000000003</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="6" t="s">
@@ -729,11 +732,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88FDC31C-0E1C-1D4D-9192-FF775FADE936}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="62.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -765,7 +770,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -773,7 +778,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -781,7 +786,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
